--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #11 NOVIEMBRE 2023/PAGOS  VECTOR CASA     ODELPA  NOVIEMBRE.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #11 NOVIEMBRE 2023/PAGOS  VECTOR CASA     ODELPA  NOVIEMBRE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="VECTOR   SAM FARMS    ODELPA  " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">C O N C E P TO </t>
   </si>
@@ -70,6 +70,12 @@
   <si>
     <t>NLP-212</t>
   </si>
+  <si>
+    <t>Compra de  40,683.87  usd tc    17.510    Y PAGO A  SAM FARMS LLC    11922--    FACTURA   12196     VALOR FACTURA    40,683.87     usd</t>
+  </si>
+  <si>
+    <t>Compra de  42,254.37   usd tc    17.310    Y PAGO A  SAM FARMS LLC    11872--    FACTURA   12218     VALOR FACTURA    42,254.37      usd</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +88,7 @@
     <numFmt numFmtId="166" formatCode="[$$-80A]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -285,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,9 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -377,6 +395,21 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -661,412 +694,473 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="41" customWidth="1"/>
     <col min="7" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="22">
-        <f t="shared" ref="I4:I24" si="0">H4-G4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <f t="shared" ref="J4:J24" si="1">J3+I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="21">
+        <f t="shared" ref="I4:I25" si="0">H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" ref="J4:J25" si="1">J3+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45233</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18">
         <v>11789</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>668161.88</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="42">
         <v>12177</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>38422.19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>38422.19</v>
       </c>
-      <c r="I5" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>911</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18">
+        <v>11922</v>
+      </c>
+      <c r="E6" s="19">
+        <v>712374.56</v>
+      </c>
+      <c r="F6" s="42">
+        <v>12196</v>
+      </c>
+      <c r="G6" s="5">
+        <v>40683.870000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>40683.870000000003</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45243</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <v>11935</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E7" s="19">
         <v>734892.79</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F7" s="42">
         <v>12204</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="5">
         <v>41601.629999999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="5">
         <v>41601.629999999997</v>
       </c>
-      <c r="I6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18">
+        <v>11872</v>
+      </c>
+      <c r="E8" s="19">
+        <v>731423.14</v>
+      </c>
+      <c r="F8" s="42">
+        <v>12218</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42254.37</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42254.37</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="23"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I22" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I24" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="26"/>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H18" s="26"/>
+      <c r="I18" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1086,7 +1180,7 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1107,55 +1201,55 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="22">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="21">
         <f t="shared" ref="I4:I24" si="0">H4-G4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <f t="shared" ref="J4:J24" si="1">J3+I4</f>
         <v>0</v>
       </c>
@@ -1164,30 +1258,30 @@
       <c r="A5" s="1">
         <v>45243</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>728832.25</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>203162</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>41375.660000000003</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>41375.660000000003</v>
       </c>
-      <c r="I5" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="I5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1196,288 +1290,288 @@
       <c r="A6" s="1">
         <v>45243</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="23">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="23">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="23">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="23">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="B11" s="23"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
+      <c r="B12" s="23"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="25" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" s="27"/>
-      <c r="I14" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H15" s="27"/>
-      <c r="I15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="H15" s="26"/>
+      <c r="I15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H16" s="27"/>
-      <c r="I16" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H17" s="27"/>
-      <c r="I17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I18" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="23">
+      <c r="I18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="38">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="38">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I22" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="23">
+      <c r="I22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="23">
+      <c r="I23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I24" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="23">
+      <c r="I24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #11 NOVIEMBRE 2023/PAGOS  VECTOR CASA     ODELPA  NOVIEMBRE.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #11 NOVIEMBRE 2023/PAGOS  VECTOR CASA     ODELPA  NOVIEMBRE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="10785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VECTOR   SAM FARMS    ODELPA  " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t xml:space="preserve">C O N C E P TO </t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Compra de  42,254.37   usd tc    17.310    Y PAGO A  SAM FARMS LLC    11872--    FACTURA   12218     VALOR FACTURA    42,254.37      usd</t>
+  </si>
+  <si>
+    <t>Compra de  41,793.65   usd tc    17.137   Y PAGO A  SAM FARMS LLC    11874--    FACTURA   12225     VALOR FACTURA    41,793.65      usd</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,9 +398,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -409,6 +409,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -706,7 +712,7 @@
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="40" customWidth="1"/>
     <col min="7" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,10 +723,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -735,7 +741,7 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -758,7 +764,7 @@
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="42"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="21">
@@ -778,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="18">
+      <c r="D5" s="45">
         <v>11789</v>
       </c>
       <c r="E5" s="19">
         <v>668161.88</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <v>12177</v>
       </c>
       <c r="G5" s="5">
@@ -810,13 +816,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="18">
+      <c r="D6" s="45">
         <v>11922</v>
       </c>
       <c r="E6" s="19">
         <v>712374.56</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <v>12196</v>
       </c>
       <c r="G6" s="5">
@@ -842,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="18">
+      <c r="D7" s="45">
         <v>11935</v>
       </c>
       <c r="E7" s="19">
         <v>734892.79</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>12204</v>
       </c>
       <c r="G7" s="5">
@@ -874,13 +880,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="D8" s="45">
         <v>11872</v>
       </c>
       <c r="E8" s="19">
         <v>731423.14</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <v>12218</v>
       </c>
       <c r="G8" s="5">
@@ -898,15 +904,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="45">
+        <v>11874</v>
+      </c>
+      <c r="E9" s="19">
+        <v>716217.78</v>
+      </c>
+      <c r="F9" s="41">
+        <v>12225</v>
+      </c>
+      <c r="G9" s="5">
+        <v>41793.65</v>
+      </c>
+      <c r="H9" s="5">
+        <v>41793.65</v>
+      </c>
       <c r="I9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -922,7 +942,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="42"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="21">
@@ -940,7 +960,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="21">
@@ -958,7 +978,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="21">
@@ -979,7 +999,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="21">
@@ -1000,7 +1020,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="21">
@@ -1011,7 +1031,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
@@ -1087,7 +1107,7 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="36">
@@ -1105,7 +1125,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="36">
@@ -1123,7 +1143,7 @@
       <c r="C22" s="29"/>
       <c r="D22" s="32"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="21">
@@ -1180,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,10 +1221,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1254,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45243</v>
       </c>
@@ -1262,13 +1282,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="45" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="19">
         <v>728832.25</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="41">
         <v>203162</v>
       </c>
       <c r="G5" s="5">
@@ -1286,15 +1306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45243</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="21">
@@ -1306,13 +1326,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="21">
@@ -1324,13 +1344,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="21">
@@ -1342,13 +1362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="21">
@@ -1360,13 +1380,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="21">
@@ -1378,13 +1398,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="23"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="21">
@@ -1396,13 +1416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="23"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="21">
@@ -1418,9 +1438,9 @@
       <c r="A13" s="1"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="21">
@@ -1436,7 +1456,9 @@
       </c>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="H14" s="26"/>
       <c r="I14" s="27">
         <f t="shared" si="0"/>
@@ -1449,7 +1471,9 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="H15" s="26"/>
       <c r="I15" s="27">
         <f t="shared" si="0"/>
@@ -1460,7 +1484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27">
         <f t="shared" si="0"/>
@@ -1471,7 +1497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27">
         <f t="shared" si="0"/>
@@ -1482,7 +1510,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F18" s="40"/>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1492,13 +1521,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="36">
@@ -1510,13 +1539,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="36">
